--- a/biology/Histoire de la zoologie et de la botanique/Fernando_Novas/Fernando_Novas.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Fernando_Novas/Fernando_Novas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fernando Emilio Novas est un paléontologue argentin. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il travaille pour le département d'anatomie comparée du Museo Argentino de Ciencias Naturales Bernardino Rivadavia de Buenos Aires.
 Travaillant pour le National Scientific and Technical Research Council (en), il a décrit et co-décrit plusieurs dinosaures tels Abelisaurus, Aniksosaurus, Aragosaurus, Austrocheirus, Austroraptor, Bicentenaria, Megaraptor, Neuquenraptor, Orkoraptor, Patagonykus, Unenlagia, Araucanoraptor, Skorpiovenator, Tyrannotitan, Talenkauen et Puertasaurus. La plupart d'entre eux ont été retrouvés en Patagonie.
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Fernando E. Novas, The Age of Dinosaurs in South America, Indiana University Press, 2009, 452 p. (présentation en ligne)
 (es) Fernando E. Novas, Buenos Aires, un millón de años atrás, Siglo Veintiuno Editores, 2006, 269 p. (présentation en ligne)</t>
